--- a/염탐꾼_염동훈/프로젝트 기획/W.B.S/3rd_teamproject_OTT.xlsx
+++ b/염탐꾼_염동훈/프로젝트 기획/W.B.S/3rd_teamproject_OTT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EZEN\Desktop\Frontend_class\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbwls\Desktop\Fronted_class\염탐꾼_염동훈\프로젝트 기획\W.B.S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE07746F-2B68-49A9-829F-07C6C50BDDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C391B7-F725-4601-BFAD-010A032CA5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -209,6 +209,14 @@
   </si>
   <si>
     <t>박리아, 정보경, 양희진, 김지선</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1198,12 +1206,99 @@
     <xf numFmtId="0" fontId="11" fillId="27" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1242,93 +1337,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1553,19 +1561,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA1003"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" customWidth="1"/>
-    <col min="4" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="31" width="7.140625" customWidth="1"/>
-    <col min="32" max="45" width="5.5703125" customWidth="1"/>
-    <col min="46" max="46" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" customWidth="1"/>
+    <col min="4" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="31" width="7.109375" customWidth="1"/>
+    <col min="32" max="45" width="5.5546875" customWidth="1"/>
+    <col min="46" max="46" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1">
@@ -1602,93 +1610,93 @@
       <c r="C5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="62" t="s">
+      <c r="I5" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="66" t="s">
+      <c r="J5" s="71"/>
+      <c r="K5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="69" t="s">
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="71"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
     </row>
     <row r="6" spans="1:34" ht="30" customHeight="1" thickBot="1">
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:34" ht="30" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="75" t="s">
+      <c r="E7" s="59"/>
+      <c r="F7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="78" t="s">
+      <c r="H7" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="47" t="s">
+      <c r="J7" s="69"/>
+      <c r="K7" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="50" t="s">
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="72" t="s">
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="53" t="s">
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="55"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="84"/>
       <c r="AE7" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="30" customHeight="1">
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="79"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="56"/>
       <c r="I8" s="31">
         <v>45603</v>
       </c>
@@ -1760,13 +1768,13 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="30" customHeight="1">
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="80"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="38" t="s">
         <v>16</v>
       </c>
@@ -1844,10 +1852,10 @@
       <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="65"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="10">
         <v>45603</v>
       </c>
@@ -1888,10 +1896,10 @@
       <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="65"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="10">
         <v>45603</v>
       </c>
@@ -1934,10 +1942,10 @@
       <c r="C12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="65"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="10">
         <v>45607</v>
       </c>
@@ -1981,10 +1989,10 @@
       <c r="C13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="44"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="23">
         <v>45611</v>
       </c>
@@ -2025,10 +2033,10 @@
       <c r="C14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="44"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="23">
         <v>45614</v>
       </c>
@@ -2066,13 +2074,13 @@
       <c r="B15" s="21">
         <v>6</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="44"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="23">
         <v>45618</v>
       </c>
@@ -2109,11 +2117,11 @@
       <c r="B16" s="21">
         <v>7</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="43" t="s">
+      <c r="C16" s="85"/>
+      <c r="D16" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="44"/>
+      <c r="E16" s="67"/>
       <c r="F16" s="23">
         <v>45618</v>
       </c>
@@ -2151,11 +2159,11 @@
       <c r="B17" s="21">
         <v>8</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="43" t="s">
+      <c r="C17" s="86"/>
+      <c r="D17" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="44"/>
+      <c r="E17" s="67"/>
       <c r="F17" s="23">
         <v>45618</v>
       </c>
@@ -2193,13 +2201,13 @@
       <c r="B18" s="21">
         <v>9</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="44"/>
+      <c r="E18" s="67"/>
       <c r="F18" s="23" t="s">
         <v>52</v>
       </c>
@@ -2237,11 +2245,11 @@
       <c r="B19" s="21">
         <v>10</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="43" t="s">
+      <c r="C19" s="75"/>
+      <c r="D19" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="44"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="23">
         <v>45624</v>
       </c>
@@ -2282,10 +2290,10 @@
       <c r="C20" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="44"/>
+      <c r="E20" s="67"/>
       <c r="F20" s="23">
         <v>45630</v>
       </c>
@@ -2326,12 +2334,12 @@
       <c r="C21" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="44"/>
+      <c r="E21" s="67"/>
       <c r="F21" s="23">
-        <v>45537</v>
+        <v>45632</v>
       </c>
       <c r="G21" s="23">
         <v>45632</v>
@@ -2370,10 +2378,10 @@
       <c r="C22" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="59"/>
+      <c r="E22" s="65"/>
       <c r="F22" s="26">
         <v>45635</v>
       </c>
@@ -2412,6 +2420,12 @@
     </row>
     <row r="24" spans="2:53" ht="30" customHeight="1">
       <c r="B24" s="1"/>
+      <c r="G24" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="2:53" ht="30" customHeight="1">
       <c r="B25" s="1"/>
@@ -5355,15 +5369,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="D7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="I7:J7"/>
@@ -5378,12 +5389,15 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="D7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/염탐꾼_염동훈/프로젝트 기획/W.B.S/3rd_teamproject_OTT.xlsx
+++ b/염탐꾼_염동훈/프로젝트 기획/W.B.S/3rd_teamproject_OTT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbwls\Desktop\Fronted_class\염탐꾼_염동훈\프로젝트 기획\W.B.S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C391B7-F725-4601-BFAD-010A032CA5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726290BE-4063-4A42-B993-F792D5F6DB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -200,10 +200,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>2024-011-27</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -216,7 +212,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t xml:space="preserve">         </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1206,6 +1202,75 @@
     <xf numFmtId="0" fontId="11" fillId="27" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1268,75 +1333,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1561,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA1003"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1600,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="39.75" customHeight="1" thickBot="1">
@@ -1610,93 +1606,93 @@
       <c r="C5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="43" t="s">
+      <c r="J5" s="63"/>
+      <c r="K5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="46" t="s">
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="48"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="71"/>
     </row>
     <row r="6" spans="1:34" ht="30" customHeight="1" thickBot="1">
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:34" ht="30" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="52" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="68" t="s">
+      <c r="I7" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="69"/>
-      <c r="K7" s="76" t="s">
+      <c r="J7" s="61"/>
+      <c r="K7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="79" t="s">
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="49" t="s">
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="82" t="s">
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="83"/>
-      <c r="AC7" s="83"/>
-      <c r="AD7" s="84"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="53"/>
       <c r="AE7" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="30" customHeight="1">
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="56"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="79"/>
       <c r="I8" s="31">
         <v>45603</v>
       </c>
@@ -1768,13 +1764,13 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="30" customHeight="1">
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="57"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="80"/>
       <c r="I9" s="38" t="s">
         <v>16</v>
       </c>
@@ -1852,10 +1848,10 @@
       <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="73"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="10">
         <v>45603</v>
       </c>
@@ -1896,10 +1892,10 @@
       <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="73"/>
+      <c r="E11" s="65"/>
       <c r="F11" s="10">
         <v>45603</v>
       </c>
@@ -1942,10 +1938,10 @@
       <c r="C12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="73"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="10">
         <v>45607</v>
       </c>
@@ -1989,10 +1985,10 @@
       <c r="C13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="67"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="23">
         <v>45611</v>
       </c>
@@ -2033,10 +2029,10 @@
       <c r="C14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="67"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="23">
         <v>45614</v>
       </c>
@@ -2074,13 +2070,13 @@
       <c r="B15" s="21">
         <v>6</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="67"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="23">
         <v>45618</v>
       </c>
@@ -2117,11 +2113,11 @@
       <c r="B16" s="21">
         <v>7</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="66" t="s">
+      <c r="C16" s="54"/>
+      <c r="D16" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="67"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="23">
         <v>45618</v>
       </c>
@@ -2159,11 +2155,11 @@
       <c r="B17" s="21">
         <v>8</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="66" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="67"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="23">
         <v>45618</v>
       </c>
@@ -2201,15 +2197,15 @@
       <c r="B18" s="21">
         <v>9</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="23" t="s">
-        <v>52</v>
+      <c r="E18" s="57"/>
+      <c r="F18" s="23">
+        <v>45623</v>
       </c>
       <c r="G18" s="23">
         <v>45630</v>
@@ -2245,11 +2241,11 @@
       <c r="B19" s="21">
         <v>10</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="66" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="67"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="23">
         <v>45624</v>
       </c>
@@ -2290,10 +2286,10 @@
       <c r="C20" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="67"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="23">
         <v>45630</v>
       </c>
@@ -2334,10 +2330,10 @@
       <c r="C21" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="67"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="23">
         <v>45632</v>
       </c>
@@ -2378,10 +2374,10 @@
       <c r="C22" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="65"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="26">
         <v>45635</v>
       </c>
@@ -2421,10 +2417,10 @@
     <row r="24" spans="2:53" ht="30" customHeight="1">
       <c r="B24" s="1"/>
       <c r="G24" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="34" t="s">
         <v>55</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:53" ht="30" customHeight="1">
@@ -2442,7 +2438,7 @@
     <row r="29" spans="2:53" ht="30" customHeight="1">
       <c r="B29" s="1"/>
       <c r="BA29" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="2:53" ht="30" customHeight="1">
@@ -5369,12 +5365,15 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="D7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="I7:J7"/>
@@ -5389,15 +5388,12 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="D7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
